--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value897.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value897.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.690062444349495</v>
+        <v>2.431118488311768</v>
       </c>
       <c r="B1">
-        <v>2.280686030612314</v>
+        <v>2.723590850830078</v>
       </c>
       <c r="C1">
-        <v>2.501911058784151</v>
+        <v>1.625187993049622</v>
       </c>
       <c r="D1">
-        <v>2.952316819832373</v>
+        <v>1.319416284561157</v>
       </c>
       <c r="E1">
-        <v>2.417640043206668</v>
+        <v>1.230550169944763</v>
       </c>
     </row>
   </sheetData>
